--- a/data/rawData/greaterRegion/polluant/no2/greaterRegion_polluants_no2.xlsx
+++ b/data/rawData/greaterRegion/polluant/no2/greaterRegion_polluants_no2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,125 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>no2_2019_04.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>no2_2019_05.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>no2_2019_06.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>no2_2019_07.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>no2_2019_08.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>no2_2019_09.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>no2_2019_10.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>no2_2019_11.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>no2_2019_12.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>no2_2020_01.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>no2_2020_02.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>no2_2020_03.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>no2_2020_04.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>no2_2020_05.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>no2_2020_06.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>no2_2020_07.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>no2_2020_08.tif</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
